--- a/Autism-prediction/Outcome Statistics Comparison.xlsx
+++ b/Autism-prediction/Outcome Statistics Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliverzagorin/Desktop/GW_Bootcamp/Homework/Autism-Diagnosis-with-Supervised-Machine-Learning-and-Neural-Networks-using-Resampling/Autism-prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32543CA-00C5-6543-BD97-12C8AE50F112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852A6225-0DA9-1848-9BAA-8ECE22C01E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="500" windowWidth="27940" windowHeight="16160" xr2:uid="{C75354E3-B14A-0C40-AF4E-AB7891C09CE5}"/>
+    <workbookView xWindow="2940" yWindow="9000" windowWidth="27940" windowHeight="16160" xr2:uid="{C75354E3-B14A-0C40-AF4E-AB7891C09CE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -109,7 +109,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B52E35-0B30-7B48-B9E1-57C6563B69A1}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F1" sqref="F1:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,7 +436,7 @@
     <col min="1" max="1" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -450,21 +450,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>85.5</v>
+        <v>84.5</v>
       </c>
       <c r="C2" s="1">
-        <v>84.5</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1">
         <v>85</v>
       </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -477,8 +480,11 @@
       <c r="D3" s="1">
         <v>88</v>
       </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -491,8 +497,11 @@
       <c r="D4" s="1">
         <v>82</v>
       </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -505,8 +514,11 @@
       <c r="D5" s="1">
         <v>89</v>
       </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -519,6 +531,9 @@
       <c r="D6" s="1">
         <v>87</v>
       </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
